--- a/FOR2A COMPUTER.xlsx
+++ b/FOR2A COMPUTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\fr baldo\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DE2CB3-C086-4BFF-AD85-828B94C82127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02EE5C-E045-4D07-8032-A37C77E28761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3EC6F84A-6503-4B22-8CDA-11C9CFDE1B02}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>09/023/FBISS</t>
+  </si>
+  <si>
+    <t>Teachers copy</t>
+  </si>
+  <si>
+    <t>99/018/G</t>
   </si>
 </sst>
 </file>
@@ -406,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FC66D4-9728-4EB8-B8B4-C5F03BD22D52}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,6 +480,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FOR2A COMPUTER.xlsx
+++ b/FOR2A COMPUTER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\fr baldo\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02EE5C-E045-4D07-8032-A37C77E28761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14CBB07-700B-409B-A4B9-A32021AEAC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3EC6F84A-6503-4B22-8CDA-11C9CFDE1B02}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>99/018/G</t>
+  </si>
+  <si>
+    <t>01/025/W</t>
+  </si>
+  <si>
+    <t>Lindsy Naisula</t>
+  </si>
+  <si>
+    <t>led student</t>
   </si>
 </sst>
 </file>
@@ -412,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FC66D4-9728-4EB8-B8B4-C5F03BD22D52}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,7 +433,7 @@
     <col min="4" max="4" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -452,7 +461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -466,7 +475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -480,7 +489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -489,6 +498,23 @@
       </c>
       <c r="D5" t="s">
         <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>360</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
